--- a/biology/Mycologie/Cronartium_ribicola/Cronartium_ribicola.xlsx
+++ b/biology/Mycologie/Cronartium_ribicola/Cronartium_ribicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cronartium ribicola  est une espèce de champignons basidiomycètes de la famille des Cronartiaceae, responsables notamment de la rouille vésiculeuse du pin blanc.
 Ce champignon est responsable de la maladie de la rouille (maladie cryptogamique) qui affecte les arbres de la famille des Pinaceae et les arbrisseaux du genre Ribes (groseillier, cassissier).
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, ribicola, de Ribes, le genre des groseilliers, et du suffixe latin -cola, « qui habite », lui a été donné en référence à l'un de ses hôtes.
 </t>
@@ -544,7 +558,9 @@
           <t>Mode de propagation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champignon est un parasite diécique car il a besoin de deux hôtes successifs pour se propager : un pin et un groseillier.
 Les arbres atteints sont reconnaissables car leurs aiguilles, normalement vertes, deviennent brunes.
@@ -577,10 +593,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La rouille est originaire d'Europe et d'Asie où elle touche le Pin de Macédoine, le Pin cembro et le Pin de l'Himalaya. Ces pins sont toutefois assez bien résistants à la maladie car ces espèces ont évolué avec la rouille depuis très longtemps.
-En revanche, la maladie a été introduite accidentellement en Amérique du Nord en 1906 et elle est devenue une espèce invasive[1]. Elle attaque des pins d'Amérique peu ou pas résistants à cette maladie. La mortalité des pins est très forte chez le Pin argenté, le Pin flexible et le Pin à écorce blanche. Le Service des forêts des États-Unis met tout en œuvre pour sélectionner les gênes qui résistent mieux à la maladie chez certains individus de ces espèces. 
+En revanche, la maladie a été introduite accidentellement en Amérique du Nord en 1906 et elle est devenue une espèce invasive. Elle attaque des pins d'Amérique peu ou pas résistants à cette maladie. La mortalité des pins est très forte chez le Pin argenté, le Pin flexible et le Pin à écorce blanche. Le Service des forêts des États-Unis met tout en œuvre pour sélectionner les gênes qui résistent mieux à la maladie chez certains individus de ces espèces. 
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (7 février 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (7 février 2023) :
 Cronartium ribicola f.sp. pedicularis F.Z. Shi, 1991</t>
         </is>
       </c>
@@ -640,11 +660,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Cronartium ribicola J.C.Fisch., 1872[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : chancre du pin Weymouth[3], rouille asiatique du groseillier[3], rouille du pin à cinq feuilles[3], rouille du pin du Lord[3], rouille du pin Weymouth[3], rouille en colonnettes du cassissier[3], rouille vésiculeuse du pin blanc[3].
-Cronartium ribicola a pour synonymes[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Cronartium ribicola J.C.Fisch., 1872.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : chancre du pin Weymouth, rouille asiatique du groseillier, rouille du pin à cinq feuilles, rouille du pin du Lord, rouille du pin Weymouth, rouille en colonnettes du cassissier, rouille vésiculeuse du pin blanc.
+Cronartium ribicola a pour synonymes :
 Cronartium ribicola J.C.Fisch., 1872
 Uredo ribicola Lasch ex Rabenh., 1844
 Uredo ribicola Lasch, 1843</t>
